--- a/data/trans_orig/P14A23_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A23_2015-Edad-trans_orig.xlsx
@@ -1146,7 +1146,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,57%</t>
+          <t>82,78%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>7,46%</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>79,64%</t>
+          <t>83,84%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>84,22%</t>
+          <t>83,46%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>87,72%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>96,99%</t>
+          <t>97,29%</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>12,28%</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>70,99%</t>
+          <t>71,17%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>92,11%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>99,15%</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>28,83%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,89%</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2014,12 +2014,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>97,9%</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,89%</t>
         </is>
       </c>
     </row>
